--- a/public/files/sample_student_1.xlsx
+++ b/public/files/sample_student_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>98988888888878</t>
-  </si>
-  <si>
-    <t>ssd</t>
   </si>
 </sst>
 </file>
@@ -589,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -928,11 +925,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
